--- a/etalonage.xlsx
+++ b/etalonage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Université\Session 4\Optique (lab)\spectroscopie ir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B10A3BC-60DF-476D-A266-ED3662A8F419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBBD73-8CF2-4C3E-AA82-93D975B847C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5B36247-164B-4272-9E02-69C159FBBB0E}"/>
   </bookViews>
@@ -635,7 +635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20-Apr</c:v>
+                  <c:v>20-avr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2487,7 +2487,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/etalonage.xlsx
+++ b/etalonage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Université\Session 4\Optique (lab)\spectroscopie ir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBBD73-8CF2-4C3E-AA82-93D975B847C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7C36F-B601-4EAB-80DA-72FBADB24AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5B36247-164B-4272-9E02-69C159FBBB0E}"/>
   </bookViews>
@@ -138,9 +138,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> alcool</a:t>
+              <a:t> alcool, 20 avril</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -586,7 +585,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Concentration eau</a:t>
+              <a:t>Concentration eau, 20 avril</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2115,15 +2114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2150,16 +2149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2486,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF55821-9126-46F9-828C-D9118C6DC3AD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
